--- a/biology/Botanique/Auguste_Roussel_(rose)/Auguste_Roussel_(rose).xlsx
+++ b/biology/Botanique/Auguste_Roussel_(rose)/Auguste_Roussel_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Auguste Roussel' est un cultivar de rosier obtenu en 1913 par Barbier Frères &amp; Compagnie[1]. Il est issu d'un croisement d'un rosier botanique, Rosa macrophylla Lindl., et d'un rosier horticole, 'Papa Gontier'[2]. Il est commercialisé chez des spécialistes de roses anciennes.
+'Auguste Roussel' est un cultivar de rosier obtenu en 1913 par Barbier Frères &amp; Compagnie. Il est issu d'un croisement d'un rosier botanique, Rosa macrophylla Lindl., et d'un rosier horticole, 'Papa Gontier'. Il est commercialisé chez des spécialistes de roses anciennes.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier grimpant triploïde aux grandes fleurs roses avec parfois des nuances jaunes, pâlissant au fur et à mesure de la floraison. Les roses légèrement parfumées sont grandes aux grosses pétales légèrement ondulés, semi-doubles (9-16 pétales) fleurissant en bouquets et laissent bien voir leurs étamines dorées[3]. La floraison n'est pas remontante et a lieu à la fin du printemps et au début de l'été[4].
-Le buisson grimpant est presque érigé aux branches peu épineuses et au feuillage vert foncé mat. Il peut s'élever de 300 cm à 500 cm[5] pour une envergure de 245 cm[1].
-Sa zone de rusticité est de 6b à 9b, il est donc vigoureux et résistant aux températures hivernales[1]. Il est parfait pour habiller un mur ou une grille[4].
-Ce rosier doit son nom au chef de culture de René Barbier[6]. On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses, à la roseraie Jean-Dupont d'Orléans et à la roseraie du jardin botanique royal de Madrid.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier grimpant triploïde aux grandes fleurs roses avec parfois des nuances jaunes, pâlissant au fur et à mesure de la floraison. Les roses légèrement parfumées sont grandes aux grosses pétales légèrement ondulés, semi-doubles (9-16 pétales) fleurissant en bouquets et laissent bien voir leurs étamines dorées. La floraison n'est pas remontante et a lieu à la fin du printemps et au début de l'été.
+Le buisson grimpant est presque érigé aux branches peu épineuses et au feuillage vert foncé mat. Il peut s'élever de 300 cm à 500 cm pour une envergure de 245 cm.
+Sa zone de rusticité est de 6b à 9b, il est donc vigoureux et résistant aux températures hivernales. Il est parfait pour habiller un mur ou une grille.
+Ce rosier doit son nom au chef de culture de René Barbier. On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses, à la roseraie Jean-Dupont d'Orléans et à la roseraie du jardin botanique royal de Madrid.
 </t>
         </is>
       </c>
